--- a/src/test/java/com/Temp/testdata.xlsx
+++ b/src/test/java/com/Temp/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -54,13 +54,20 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Username cannot be empty.</t>
+    <t>test555</t>
+  </si>
+  <si>
+    <t>Username cannot be empty..</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -70,7 +77,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,6 +87,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -111,9 +124,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,15 +425,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.7265625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -440,63 +455,68 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="C2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3">
-        <v>6666</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
